--- a/safeCitiesIndex.xlsx
+++ b/safeCitiesIndex.xlsx
@@ -29,18 +29,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
-    <t xml:space="preserve">  DIGITAL_SECURITY</t>
-  </si>
-  <si>
-    <t>HEALTH_SECURITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  INFRASTRUCTURE_SECURITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  PERSONAL_SECURITY</t>
-  </si>
-  <si>
     <t>Abu Dhabi</t>
   </si>
   <si>
@@ -222,6 +210,18 @@
   </si>
   <si>
     <t>city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DIGITAL</t>
+  </si>
+  <si>
+    <t>HEALTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  INFRASTRUCTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  PERSONAL</t>
   </si>
 </sst>
 </file>
@@ -809,7 +809,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,24 +823,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5">
         <v>68.774210791960428</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>85.790710031857486</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B4" s="8">
         <v>61.938232111127334</v>
@@ -891,7 +891,7 @@
     </row>
     <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="8">
         <v>44.443122951707331</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="8">
         <v>74.441467232497914</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7" s="8">
         <v>65.376253116585588</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8" s="8">
         <v>54.622679946968915</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" s="8">
         <v>79.963160157482648</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" s="8">
         <v>74.143002656638103</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8">
         <v>43.293186149255661</v>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8">
         <v>58.386564860842597</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" s="8">
         <v>57.372278309708804</v>
@@ -1044,7 +1044,7 @@
     </row>
     <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8">
         <v>86.750447488789291</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B15" s="8">
         <v>84.653784994269202</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B16" s="8">
         <v>54.605588275542431</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B17" s="8">
         <v>38.333333333333329</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="8">
         <v>64.018380923819052</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B19" s="8">
         <v>80.500435216305675</v>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B20" s="8">
         <v>39.782233009103535</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B21" s="8">
         <v>85.77435209177159</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8">
         <v>61.706455865450209</v>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B23" s="8">
         <v>36.604490608719907</v>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B24" s="8">
         <v>65.860586938724595</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B25" s="8">
         <v>66.277916715007947</v>
@@ -1248,7 +1248,7 @@
     </row>
     <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8">
         <v>43.217559697827056</v>
@@ -1265,7 +1265,7 @@
     </row>
     <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B27" s="8">
         <v>66.167214723906753</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" s="8">
         <v>60.166693089440287</v>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B29" s="8">
         <v>59.778945061089118</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B30" s="8">
         <v>73.363508184255082</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B31" s="8">
         <v>85.119709993051458</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B32" s="8">
         <v>74.441467232497914</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B33" s="8">
         <v>36.609184291508697</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B34" s="8">
         <v>83.317062854423796</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B35" s="8">
         <v>53.690331383978389</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B36" s="8">
         <v>73.289655915972645</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="8">
         <v>49.02795789983297</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B38" s="8">
         <v>54.605588275542431</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B39" s="8">
         <v>84.950282720766992</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="8">
         <v>82.110953299077707</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B41" s="8">
         <v>70.373432012400684</v>
@@ -1520,7 +1520,7 @@
     </row>
     <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B42" s="8">
         <v>60.648447683879816</v>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B43" s="8">
         <v>51.962402586837825</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B44" s="8">
         <v>60.860586938724587</v>
@@ -1571,7 +1571,7 @@
     </row>
     <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="8">
         <v>71.622989249305988</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46" s="8">
         <v>85.119709993051458</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B47" s="8">
         <v>60.565696483748738</v>
@@ -1622,7 +1622,7 @@
     </row>
     <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" s="8">
         <v>51.962402586837825</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B49" s="8">
         <v>78.424333520143762</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B50" s="8">
         <v>59.423224709985547</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="8">
         <v>86.838418269342768</v>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" s="8">
         <v>82.806774549482299</v>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" s="8">
         <v>82.957029900819322</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="8">
         <v>65.977277291751562</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B55" s="8">
         <v>39.884869061245539</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B56" s="8">
         <v>88.402836250246651</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B57" s="8">
         <v>85.331589364428439</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B58" s="8">
         <v>80.882132718331476</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B59" s="8">
         <v>74.80102137125391</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B60" s="8">
         <v>39.067202268631171</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B61" s="8">
         <v>77.976981313838081</v>
